--- a/documents/Balance Register New.xlsx
+++ b/documents/Balance Register New.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Retardarenan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gittar\textspel\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -344,6 +344,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -390,11 +391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="195472528"/>
-        <c:axId val="195470568"/>
+        <c:axId val="201315536"/>
+        <c:axId val="200339928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195472528"/>
+        <c:axId val="201315536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +438,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195470568"/>
+        <c:crossAx val="200339928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -445,7 +446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195470568"/>
+        <c:axId val="200339928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +497,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195472528"/>
+        <c:crossAx val="201315536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,6 +587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1036,11 +1038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="195474096"/>
-        <c:axId val="195474488"/>
+        <c:axId val="200339536"/>
+        <c:axId val="200340712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195474096"/>
+        <c:axId val="200339536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1085,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195474488"/>
+        <c:crossAx val="200340712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195474488"/>
+        <c:axId val="200340712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1144,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195474096"/>
+        <c:crossAx val="200339536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,11 +1753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="195469000"/>
-        <c:axId val="195473312"/>
+        <c:axId val="200343848"/>
+        <c:axId val="200341104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195469000"/>
+        <c:axId val="200343848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1800,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195473312"/>
+        <c:crossAx val="200341104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195473312"/>
+        <c:axId val="200341104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1859,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195469000"/>
+        <c:crossAx val="200343848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,6 +1943,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2405,11 +2408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="196312928"/>
-        <c:axId val="196313712"/>
+        <c:axId val="200341496"/>
+        <c:axId val="200341888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196312928"/>
+        <c:axId val="200341496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2455,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196313712"/>
+        <c:crossAx val="200341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2460,7 +2463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196313712"/>
+        <c:axId val="200341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2514,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196312928"/>
+        <c:crossAx val="200341496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,6 +2598,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3045,11 +3049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="196309008"/>
-        <c:axId val="196310576"/>
+        <c:axId val="437098344"/>
+        <c:axId val="437095208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196309008"/>
+        <c:axId val="437098344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3096,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196310576"/>
+        <c:crossAx val="437095208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3100,7 +3104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196310576"/>
+        <c:axId val="437095208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,7 +3155,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196309008"/>
+        <c:crossAx val="437098344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3692,11 +3696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="196312536"/>
-        <c:axId val="196316456"/>
+        <c:axId val="437099912"/>
+        <c:axId val="437096384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196312536"/>
+        <c:axId val="437099912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3739,7 +3743,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196316456"/>
+        <c:crossAx val="437096384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3747,7 +3751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196316456"/>
+        <c:axId val="437096384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3802,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196312536"/>
+        <c:crossAx val="437099912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3941,6 +3945,20 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -3988,7 +4006,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4002,7 +4020,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4016,7 +4034,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4044,21 +4062,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4087,6 +4091,20 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4193,6 +4211,20 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -4221,6 +4253,20 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="24"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -4252,19 +4298,19 @@
                   <c:v>Ancient Spear</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Longbow</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Broadsword</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Crossbow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shortbow</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Hunting Spear</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Longbow</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Broadsword</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Crossbow</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Shortbow</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Shortsword</c:v>
@@ -4327,28 +4373,28 @@
                   <c:v>41.0713875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.199999999999996</c:v>
+                  <c:v>31.349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.049999999999997</c:v>
+                  <c:v>27.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.324999999999999</c:v>
+                  <c:v>25.874999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.3</c:v>
+                  <c:v>25.385674999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.385674999999999</c:v>
+                  <c:v>24.178462499999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.178462499999998</c:v>
+                  <c:v>23.892399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.892399999999999</c:v>
+                  <c:v>23.46575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.46575</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.7805</c:v>
@@ -4411,11 +4457,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="196312144"/>
-        <c:axId val="196313320"/>
+        <c:axId val="437097952"/>
+        <c:axId val="437095600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196312144"/>
+        <c:axId val="437097952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4504,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196313320"/>
+        <c:crossAx val="437095600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4466,7 +4512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196313320"/>
+        <c:axId val="437095600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4563,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196312144"/>
+        <c:crossAx val="437097952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8380,7 +8426,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8402,7 +8448,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8413,7 +8459,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8435,7 +8481,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8446,7 +8492,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -8530,7 +8576,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -8557,7 +8603,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -8906,22 +8952,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9560,21 +9606,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
@@ -9648,7 +9694,7 @@
         <v>0.95</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O26" si="0">K2 * L2 + (K2 * L2 * M2 * N2)</f>
+        <f>K2 * L2 + (K2 * L2 * M2 * N2)</f>
         <v>41.0713875</v>
       </c>
     </row>
@@ -9682,7 +9728,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L3" s="6">
         <v>0.95</v>
@@ -9694,8 +9740,8 @@
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>34.199999999999996</v>
+        <f>K3 * L3 + (K3 * L3 * M3 * N3)</f>
+        <v>31.349999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9728,7 +9774,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4" s="6">
         <v>1.1499999999999999</v>
@@ -9740,8 +9786,8 @@
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="0"/>
-        <v>31.049999999999997</v>
+        <f>K4 * L4 + (K4 * L4 * M4 * N4)</f>
+        <v>27.599999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -9774,7 +9820,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="6">
-        <v>25.5</v>
+        <v>22.5</v>
       </c>
       <c r="L5" s="6">
         <v>1.1499999999999999</v>
@@ -9786,8 +9832,8 @@
         <v>0</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="0"/>
-        <v>29.324999999999999</v>
+        <f>K5 * L5 + (K5 * L5 * M5 * N5)</f>
+        <v>25.874999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -9813,27 +9859,27 @@
         <f>C6 * D6 + (C6 * D6 * E6 * F6)</f>
         <v>41.0713875</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="6">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="0"/>
-        <v>27.3</v>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7">
+        <v>19.55</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="7">
+        <f>K6 * L6 + (K6 * L6 * M6 * N6)</f>
+        <v>25.385674999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -9856,30 +9902,30 @@
         <v>0.75</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:G26" si="1">C7 * D7 + (C7 * D7 * E7 * F7)</f>
+        <f t="shared" ref="G7:G26" si="0">C7 * D7 + (C7 * D7 * E7 * F7)</f>
         <v>19.528437499999999</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
         <v>19.55</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.7</v>
       </c>
-      <c r="M7" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>25.385674999999999</v>
+      <c r="N7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="O7" s="2">
+        <f>K7 * L7 + (K7 * L7 * M7 * N7)</f>
+        <v>24.178462499999998</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -9902,30 +9948,30 @@
         <v>0.65</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.49</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2">
-        <v>19.55</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L8" s="7">
         <v>0.7</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="0"/>
-        <v>24.178462499999998</v>
+      <c r="M8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="O8" s="7">
+        <f>K8 * L8 + (K8 * L8 * M8 * N8)</f>
+        <v>23.892399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -9948,30 +9994,30 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.4564375</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="7">
-        <v>16.100000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="L9" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M9" s="7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="N9" s="7">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="0"/>
-        <v>23.892399999999999</v>
+        <f>K9 * L9 + (K9 * L9 * M9 * N9)</f>
+        <v>23.46575</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -9994,30 +10040,30 @@
         <v>0.35</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.168637499999999</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>12.65</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="0"/>
-        <v>23.46575</v>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="6">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <f>K10 * L10 + (K10 * L10 * M10 * N10)</f>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -10040,7 +10086,7 @@
         <v>1.3</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.827874999999999</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -10062,7 +10108,7 @@
         <v>0.65</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
+        <f>K11 * L11 + (K11 * L11 * M11 * N11)</f>
         <v>20.7805</v>
       </c>
     </row>
@@ -10086,7 +10132,7 @@
         <v>1.05</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.644137500000003</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -10108,7 +10154,7 @@
         <v>0.65</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f>K12 * L12 + (K12 * L12 * M12 * N12)</f>
         <v>20.720700000000001</v>
       </c>
     </row>
@@ -10132,7 +10178,7 @@
         <v>4.3</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.434874999999998</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -10154,7 +10200,7 @@
         <v>1.05</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="0"/>
+        <f>K13 * L13 + (K13 * L13 * M13 * N13)</f>
         <v>19.644137500000003</v>
       </c>
     </row>
@@ -10178,7 +10224,7 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.875</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -10200,7 +10246,7 @@
         <v>0.75</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
+        <f>K14 * L14 + (K14 * L14 * M14 * N14)</f>
         <v>19.528437499999999</v>
       </c>
     </row>
@@ -10224,7 +10270,7 @@
         <v>0.25</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.557374999999999</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -10246,7 +10292,7 @@
         <v>0.3</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="0"/>
+        <f>K15 * L15 + (K15 * L15 * M15 * N15)</f>
         <v>17.875</v>
       </c>
     </row>
@@ -10270,7 +10316,7 @@
         <v>0.2</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.9925</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -10292,7 +10338,7 @@
         <v>1.3</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="0"/>
+        <f>K16 * L16 + (K16 * L16 * M16 * N16)</f>
         <v>17.827874999999999</v>
       </c>
     </row>
@@ -10316,7 +10362,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.595000000000002</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -10338,7 +10384,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="0"/>
+        <f>K17 * L17 + (K17 * L17 * M17 * N17)</f>
         <v>17.595000000000002</v>
       </c>
     </row>
@@ -10362,7 +10408,7 @@
         <v>0.45</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.094625000000001</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -10384,7 +10430,7 @@
         <v>0.35</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="0"/>
+        <f>K18 * L18 + (K18 * L18 * M18 * N18)</f>
         <v>17.168637499999999</v>
       </c>
     </row>
@@ -10408,7 +10454,7 @@
         <v>-0.35</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0009999999999999</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -10430,7 +10476,7 @@
         <v>0.65</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="0"/>
+        <f>K19 * L19 + (K19 * L19 * M19 * N19)</f>
         <v>14.49</v>
       </c>
     </row>
@@ -10442,7 +10488,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6">
         <v>1.3</v>
@@ -10454,8 +10500,8 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>27.3</v>
+        <f t="shared" si="0"/>
+        <v>23.400000000000002</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
@@ -10476,7 +10522,7 @@
         <v>4.3</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="0"/>
+        <f>K20 * L20 + (K20 * L20 * M20 * N20)</f>
         <v>14.434874999999998</v>
       </c>
     </row>
@@ -10488,7 +10534,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6">
         <v>1.1499999999999999</v>
@@ -10500,8 +10546,8 @@
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>31.049999999999997</v>
+        <f t="shared" si="0"/>
+        <v>27.599999999999998</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>41</v>
@@ -10522,7 +10568,7 @@
         <v>0.25</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="0"/>
+        <f>K21 * L21 + (K21 * L21 * M21 * N21)</f>
         <v>13.557374999999999</v>
       </c>
     </row>
@@ -10534,7 +10580,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>0.95</v>
@@ -10546,8 +10592,8 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>34.199999999999996</v>
+        <f t="shared" si="0"/>
+        <v>31.349999999999998</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>13</v>
@@ -10568,7 +10614,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="0"/>
+        <f>K22 * L22 + (K22 * L22 * M22 * N22)</f>
         <v>13.4564375</v>
       </c>
     </row>
@@ -10580,7 +10626,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="6">
-        <v>25.5</v>
+        <v>22.5</v>
       </c>
       <c r="D23" s="6">
         <v>1.1499999999999999</v>
@@ -10592,8 +10638,8 @@
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>29.324999999999999</v>
+        <f t="shared" si="0"/>
+        <v>25.874999999999996</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>42</v>
@@ -10614,7 +10660,7 @@
         <v>0.2</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="0"/>
+        <f>K23 * L23 + (K23 * L23 * M23 * N23)</f>
         <v>11.9925</v>
       </c>
     </row>
@@ -10638,7 +10684,7 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.46575</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -10660,7 +10706,7 @@
         <v>0.45</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="0"/>
+        <f>K24 * L24 + (K24 * L24 * M24 * N24)</f>
         <v>11.094625000000001</v>
       </c>
     </row>
@@ -10684,7 +10730,7 @@
         <v>0.9</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25.385674999999999</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -10706,7 +10752,7 @@
         <v>0.15</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="0"/>
+        <f>K25 * L25 + (K25 * L25 * M25 * N25)</f>
         <v>7.4623500000000007</v>
       </c>
     </row>
@@ -10730,7 +10776,7 @@
         <v>1.4</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.892399999999999</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -10752,7 +10798,7 @@
         <v>-0.35</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="0"/>
+        <f>K26 * L26 + (K26 * L26 * M26 * N26)</f>
         <v>2.0009999999999999</v>
       </c>
     </row>
@@ -10775,41 +10821,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
